--- a/static/rhythm_games/Base Megamix.xlsx
+++ b/static/rhythm_games/Base Megamix.xlsx
@@ -335,7 +335,7 @@
     <t>Working Dough 1</t>
   </si>
   <si>
-    <t>working_dough_megamix.png</t>
+    <t>working_dough_1_megamix.png</t>
   </si>
   <si>
     <t>Animal Acrobat</t>
@@ -443,7 +443,7 @@
     <t>Cheer Readers 1</t>
   </si>
   <si>
-    <t>cheer_readers_megamix.png</t>
+    <t>cheer_readers_1_megamix.png</t>
   </si>
   <si>
     <t>Kitties!</t>
@@ -557,7 +557,7 @@
     <t>Coin Toss</t>
   </si>
   <si>
-    <t>Challenge</t>
+    <t>Challenge (Megamix)</t>
   </si>
   <si>
     <t>coin_toss_megamix.png</t>
@@ -581,7 +581,7 @@
     <t>clap_trap_megamix.png</t>
   </si>
   <si>
-    <t>Endless</t>
+    <t>Endless (Megamix)</t>
   </si>
   <si>
     <t>Lockstep 1</t>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -868,6 +868,9 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1100,6 +1103,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="19.63"/>
     <col customWidth="1" min="7" max="7" width="29.25"/>
   </cols>
   <sheetData>
@@ -3291,7 +3295,7 @@
       <c r="A85" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -3317,7 +3321,7 @@
       <c r="A86" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -3343,7 +3347,7 @@
       <c r="A87" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -3369,7 +3373,7 @@
       <c r="A88" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="15" t="s">
         <v>177</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -3402,10 +3406,10 @@
       <c r="H89" s="8"/>
     </row>
     <row r="90">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -3428,10 +3432,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -3454,10 +3458,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -3480,10 +3484,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -3516,10 +3520,10 @@
       <c r="H94" s="8"/>
     </row>
     <row r="95">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -3542,10 +3546,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -3568,10 +3572,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -3597,10 +3601,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -3626,10 +3630,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -3655,10 +3659,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -3684,10 +3688,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -3713,10 +3717,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -3742,10 +3746,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -3771,10 +3775,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -3800,10 +3804,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -3829,10 +3833,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -3858,10 +3862,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -3887,10 +3891,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -3916,10 +3920,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -4183,10 +4187,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -4221,10 +4225,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -4295,10 +4299,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="19" t="s">
         <v>187</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -4369,10 +4373,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="20" t="s">
         <v>236</v>
       </c>
       <c r="C120" s="3" t="s">

--- a/static/rhythm_games/Base Megamix.xlsx
+++ b/static/rhythm_games/Base Megamix.xlsx
@@ -744,7 +744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -757,6 +757,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -782,14 +787,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFD7FE"/>
-        <bgColor rgb="FFBFD7FE"/>
+        <fgColor rgb="FF92B9F7"/>
+        <bgColor rgb="FF92B9F7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA3"/>
-        <bgColor rgb="FFFFFFA3"/>
+        <fgColor rgb="FFE5E593"/>
+        <bgColor rgb="FFE5E593"/>
       </patternFill>
     </fill>
     <fill>
@@ -806,14 +811,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCACA"/>
-        <bgColor rgb="FFFFCACA"/>
+        <fgColor rgb="FFE59393"/>
+        <bgColor rgb="FFE59393"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFABAB"/>
-        <bgColor rgb="FFFFABAB"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -884,7 +889,7 @@
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
